--- a/src/analysis_examples/circadb/results_lomb/cosinor_10549341_4933424b01rik_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10549341_4933424b01rik_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24442199292135752, 0.3523315417942339]</t>
+          <t>[0.24532404789372203, 0.3514294868218694]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.588345011072079e-10</v>
+        <v>1.166944318953256e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.588345011072079e-10</v>
+        <v>1.166944318953256e-10</v>
       </c>
       <c r="O2" t="n">
         <v>0.2956053147521933</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5165287097966246, 0.5777625084257424]</t>
+          <t>[0.5165518944721026, 0.5777393237502644]</t>
         </is>
       </c>
       <c r="U2" t="n">
